--- a/biology/Botanique/Omphalodes_luciliae/Omphalodes_luciliae.xlsx
+++ b/biology/Botanique/Omphalodes_luciliae/Omphalodes_luciliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes luciliae est une espèce de plantes de la famille des Boraginacées originaire d'Europe et Asie Mineure.
 </t>
@@ -511,10 +523,12 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comme le genre, Omphalodes luciliae fait partie de la sous-famille Boraginoideae.
-Pierre Edmond Boissier décrit cette espèce en 1844[1]. Aucune modification de sa détermination n'a été produite depuis.
+Pierre Edmond Boissier décrit cette espèce en 1844. Aucune modification de sa détermination n'a été produite depuis.
 On relève quatre sous-espèces :
 Omphalodes luciliae subsp. cilicica (Hausskn. ex Brand) Bornm. (1896) - synonyme : Omphalodes cilicica Hausskn. ex Brand (1921)
 Omphalodes luciliae subsp. kurdica Rech.f. &amp; H.Riedl (1988)
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace, de 10 à 30 centimètres de haut, formant une touffe stolonifère.
 Les tiges, grêles, érigées, non ramifiées, portent des feuilles alternes, lancéolées vert-clair, minces, à une nervure centrale et glabres.
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalodes luciliae est originaire d'Europe méridionale et d'Asie Mineure : Grèce, Turquie.
 Il s'agit d'une plante d'altitude. Son habitat est formé préférentiellement de sous-bois clairs.
